--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194373.393229323</v>
+        <v>-1196271.625333447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>313.9426892876511</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>327.7268593084439</v>
       </c>
       <c r="H2" t="n">
-        <v>35.28809622514905</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>46.32465598576572</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.8721928563319</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>186.2507170030308</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.75685339834061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.553842565068941</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>350.47084486422</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.2076895021003</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5035263306621</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.30686373396762</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675371</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>166.5128995022521</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,13 +1658,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.37433807241453</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>154.6641145598217</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113168</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.5303094322331</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.58369755065806</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>109.3509998456316</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>142.4312553669866</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415255</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329028</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1722.185086336931</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.185086336931</v>
+        <v>1503.021466417851</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.919387730181</v>
+        <v>1144.7557678111</v>
       </c>
       <c r="E2" t="n">
-        <v>978.1311351319366</v>
+        <v>758.9675152128561</v>
       </c>
       <c r="F2" t="n">
-        <v>661.0173075686527</v>
+        <v>758.9675152128561</v>
       </c>
       <c r="G2" t="n">
-        <v>243.0534994668395</v>
+        <v>427.9302835881654</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>100.7355636241682</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2032503805102</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>181.0866109681745</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>181.0866109681745</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>181.0866109681745</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>181.0866109681745</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>181.0866109681745</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>631.9064409481875</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C5" t="n">
-        <v>262.9439240077758</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>894.7683042050585</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>483.7823994154509</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>65.8185913136378</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,16 +4653,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.54282279518156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>58.54282279518156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>58.54282279518156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.54282279518156</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1504.400259589023</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1504.400259589023</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1146.134560982272</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1146.134560982272</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>735.1486561926647</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.400259589023</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,28 +4884,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.027325963587</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>184.027325963587</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>184.027325963587</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>184.027325963587</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>184.027325963587</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.027325963587</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5018,37 +5018,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.7114078547892</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>677.7114078547892</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>527.5947684424534</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>379.6816748600603</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>379.6816748600603</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290396</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5230,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983193</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>898.5039869983193</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y13" t="n">
-        <v>677.7114078547892</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5273,43 +5273,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>403.8614782555968</v>
       </c>
       <c r="C16" t="n">
-        <v>272.964375390212</v>
+        <v>403.8614782555968</v>
       </c>
       <c r="D16" t="n">
-        <v>122.8477359778763</v>
+        <v>403.8614782555968</v>
       </c>
       <c r="E16" t="n">
-        <v>122.8477359778763</v>
+        <v>403.8614782555968</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>403.8614782555968</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909239</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227972</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>874.9271131227972</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>585.5099430858365</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>585.5099430858365</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>585.5099430858365</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1392.319998404132</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1192.399988319684</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1192.399988319684</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>903.2713495332426</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>648.5868613273558</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996364</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.210845262961</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6248,22 +6248,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903951</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903951</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1388.460715158275</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1388.460715158275</v>
       </c>
       <c r="U28" t="n">
-        <v>1131.26090043126</v>
+        <v>1388.460715158275</v>
       </c>
       <c r="V28" t="n">
-        <v>876.5764122253731</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="W28" t="n">
-        <v>587.1592421884125</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="X28" t="n">
-        <v>359.1696912903951</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y28" t="n">
-        <v>359.1696912903951</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6598,19 +6598,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7075,31 +7075,31 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7181,19 +7181,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7312,28 +7312,28 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,19 +7655,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103131</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7834,22 +7834,22 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524669997</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>92.93335645406032</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>86.05731071235115</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.18670472941</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>119.7244528963253</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>120.0467099505167</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>11.8294539035559</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>4.43404297155972</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>96.24828263127924</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>88.56981013797166</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>143.8060970315907</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1299205.551708205</v>
+        <v>1299205.551708204</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1245999.414104647</v>
+        <v>1245999.414104646</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1245999.414104646</v>
+        <v>1245999.414104647</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>142387.7480708447</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>136860.1709081981</v>
@@ -26329,16 +26329,16 @@
         <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262493</v>
@@ -26347,10 +26347,10 @@
         <v>143682.3097262495</v>
       </c>
       <c r="N2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="O2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371259</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371259</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152552.7115643755</v>
+        <v>152552.7115643753</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26430,31 +26430,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275955</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.4568627596</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682991.9207714848</v>
+        <v>-683010.414509419</v>
       </c>
       <c r="C6" t="n">
-        <v>-95951.72658838233</v>
+        <v>-95951.7265883823</v>
       </c>
       <c r="D6" t="n">
-        <v>-95951.72658838236</v>
+        <v>-95951.72658838244</v>
       </c>
       <c r="E6" t="n">
-        <v>-495332.8611388537</v>
+        <v>-495430.320264826</v>
       </c>
       <c r="F6" t="n">
-        <v>29827.17533804241</v>
+        <v>29729.71621207013</v>
       </c>
       <c r="G6" t="n">
-        <v>29827.17533804233</v>
+        <v>29729.71621207026</v>
       </c>
       <c r="H6" t="n">
-        <v>29827.17533804245</v>
+        <v>29729.71621207029</v>
       </c>
       <c r="I6" t="n">
-        <v>29827.17533804242</v>
+        <v>29729.71621207018</v>
       </c>
       <c r="J6" t="n">
-        <v>-146596.0438545505</v>
+        <v>-146693.5029805226</v>
       </c>
       <c r="K6" t="n">
-        <v>-46002.76506024794</v>
+        <v>-46002.7650602482</v>
       </c>
       <c r="L6" t="n">
-        <v>8502.747043464333</v>
+        <v>8502.747043464347</v>
       </c>
       <c r="M6" t="n">
-        <v>-126298.2681903725</v>
+        <v>-126298.2681903727</v>
       </c>
       <c r="N6" t="n">
-        <v>8502.747043464653</v>
+        <v>8502.747043464638</v>
       </c>
       <c r="O6" t="n">
-        <v>8502.747043464697</v>
+        <v>8502.747043464595</v>
       </c>
       <c r="P6" t="n">
-        <v>-46002.76506024785</v>
+        <v>-46002.76506024798</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964074</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964074</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>288.6346765392081</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>105.6066602590955</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>9.093428936006305</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>168.4323246176522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>312.1659193660165</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>144.0616304531434</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>63.31332515657499</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.03327921531269</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0.08112702143270667</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>383.9564222971663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187968</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>294.2627707717784</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
